--- a/documentationSE.xlsx
+++ b/documentationSE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t xml:space="preserve">Route</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created_time</t>
   </si>
   <si>
     <t xml:space="preserve">response error, request ticket gagal, dsb</t>
@@ -157,6 +160,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/payment/</t>
     </r>
@@ -165,6 +169,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">verified</t>
     </r>
@@ -183,6 +188,15 @@
   </si>
   <si>
     <t xml:space="preserve">status ok, user berhasil scan keluar parkir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_out</t>
   </si>
 </sst>
 </file>
@@ -197,6 +211,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -218,11 +233,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -419,19 +436,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="56.13"/>
@@ -569,18 +586,24 @@
       <c r="D9" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="J9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
@@ -591,24 +614,30 @@
       <c r="D14" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="F15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>15</v>
@@ -617,10 +646,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,18 +671,18 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>11</v>
@@ -665,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>11</v>
@@ -687,24 +716,24 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>11</v>
@@ -716,10 +745,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,17 +759,17 @@
         <v>11</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>9</v>
@@ -758,7 +787,31 @@
         <v>11</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
